--- a/data/trans_orig/P52_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P52_1-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>107031</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>94014</v>
+        <v>96141</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>116597</v>
+        <v>117139</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7329250379358561</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6437919527205858</v>
+        <v>0.6583544637891652</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7984316111728896</v>
+        <v>0.8021443950882765</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -763,19 +763,19 @@
         <v>43397</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34512</v>
+        <v>35865</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49503</v>
+        <v>49650</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7109141701322589</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5653546255854456</v>
+        <v>0.5875324663830156</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8109341922676769</v>
+        <v>0.8133447178373424</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>150</v>
@@ -784,19 +784,19 @@
         <v>150428</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>135930</v>
+        <v>136981</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>161516</v>
+        <v>161884</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.726436446164933</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6564269906119264</v>
+        <v>0.6615024257158079</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7799850536874828</v>
+        <v>0.7817596826100304</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>7698</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2997</v>
+        <v>3581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15698</v>
+        <v>16195</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05271628603932451</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02052046135832102</v>
+        <v>0.02451965227305562</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1074968426767523</v>
+        <v>0.1109021569807635</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -834,19 +834,19 @@
         <v>3080</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8445</v>
+        <v>7776</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05045940621272923</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01628522388657443</v>
+        <v>0.01616384700080308</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1383428142259358</v>
+        <v>0.1273898836284731</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -855,19 +855,19 @@
         <v>10779</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5632</v>
+        <v>5421</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20047</v>
+        <v>19060</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05205097960972453</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02719918040299128</v>
+        <v>0.02617823390039013</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09681158815338632</v>
+        <v>0.09204473129654936</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>5093</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1943</v>
+        <v>1921</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11486</v>
+        <v>11613</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03487355325552044</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01330536861897516</v>
+        <v>0.01315511742698818</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07865201801006765</v>
+        <v>0.07952336099509509</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>6808</v>
+        <v>6738</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.035282579151461</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1115277456250813</v>
+        <v>0.1103868742949922</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -926,19 +926,19 @@
         <v>7246</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3160</v>
+        <v>3400</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>14088</v>
+        <v>14646</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03499413014899761</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01526161069569409</v>
+        <v>0.01641917434264472</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0680343655779658</v>
+        <v>0.0707278623363462</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>26211</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17597</v>
+        <v>17870</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36295</v>
+        <v>36167</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.179485122769299</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1205007048359061</v>
+        <v>0.1223694708560218</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2485393602236413</v>
+        <v>0.2476623156707793</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -976,19 +976,19 @@
         <v>12413</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>6866</v>
+        <v>6899</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20185</v>
+        <v>18986</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2033438445035509</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1124770170787081</v>
+        <v>0.1130213330714143</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3306657700275853</v>
+        <v>0.3110224726118834</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -997,19 +997,19 @@
         <v>38623</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27948</v>
+        <v>29087</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>50008</v>
+        <v>51308</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1865184440763449</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1349656524568779</v>
+        <v>0.140465533842427</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2414975459100496</v>
+        <v>0.2477717099016511</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>86686</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>73844</v>
+        <v>73262</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>99450</v>
+        <v>100098</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5100475575673712</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4344880757605046</v>
+        <v>0.4310597173092045</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5851458107299153</v>
+        <v>0.5889605286595173</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>35</v>
@@ -1122,19 +1122,19 @@
         <v>39762</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31795</v>
+        <v>30535</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>48443</v>
+        <v>47327</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.593322667788785</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4744400935843881</v>
+        <v>0.4556370692375794</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7228716039913882</v>
+        <v>0.7062077670980466</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>115</v>
@@ -1143,19 +1143,19 @@
         <v>126448</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>110607</v>
+        <v>109543</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>143703</v>
+        <v>141624</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.533597670991366</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4667494229235421</v>
+        <v>0.4622608178806611</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6064153536461949</v>
+        <v>0.5976408634608538</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>5602</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2613</v>
+        <v>1904</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11215</v>
+        <v>12547</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03296384503542309</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01537424395460444</v>
+        <v>0.01120173045316435</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06598873063609385</v>
+        <v>0.07382498663928246</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1193,19 +1193,19 @@
         <v>3254</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9041</v>
+        <v>8948</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04855904427141077</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01393141208843857</v>
+        <v>0.01417968766041776</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1349154272752522</v>
+        <v>0.133522364013158</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1214,19 +1214,19 @@
         <v>8857</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3881</v>
+        <v>4641</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15991</v>
+        <v>16305</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0373741509467669</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01637608417439834</v>
+        <v>0.01958551412865846</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06748264712499143</v>
+        <v>0.06880582433991816</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>8337</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3416</v>
+        <v>3448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16138</v>
+        <v>15693</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04905301105829799</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02009905677829947</v>
+        <v>0.02028508301170071</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0949555661480852</v>
+        <v>0.09233696738473907</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6912</v>
+        <v>7613</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03254943763090817</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1031458390200371</v>
+        <v>0.1136008985638155</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -1285,19 +1285,19 @@
         <v>10518</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4868</v>
+        <v>5430</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>19565</v>
+        <v>19073</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04438581788277558</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02054066578240053</v>
+        <v>0.02291595338652149</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08256066219653375</v>
+        <v>0.08048497257484173</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>69332</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>56027</v>
+        <v>56191</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>81379</v>
+        <v>82943</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4079355863389078</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3296526503509217</v>
+        <v>0.3306213762707995</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4788183176233505</v>
+        <v>0.4880238236265655</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -1335,19 +1335,19 @@
         <v>21818</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13980</v>
+        <v>14992</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29585</v>
+        <v>30605</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3255688503088961</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2086126817324624</v>
+        <v>0.2237055883899026</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4414753011943304</v>
+        <v>0.4566823079963643</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>88</v>
@@ -1356,19 +1356,19 @@
         <v>91149</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>75649</v>
+        <v>76470</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>106480</v>
+        <v>107667</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3846423601790915</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3192328448910102</v>
+        <v>0.3226945261185062</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4493345046163868</v>
+        <v>0.4543440844559906</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>60472</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49282</v>
+        <v>47769</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>72626</v>
+        <v>72387</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4550126966317262</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3708209979059421</v>
+        <v>0.3594324547256171</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5464673693227884</v>
+        <v>0.5446669728395723</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>41</v>
@@ -1481,19 +1481,19 @@
         <v>42449</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33838</v>
+        <v>33203</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>51234</v>
+        <v>50613</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5940471361543243</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4735497041390025</v>
+        <v>0.4646605123079848</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7169869878535051</v>
+        <v>0.7083027940245605</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>99</v>
@@ -1502,19 +1502,19 @@
         <v>102921</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>87072</v>
+        <v>88009</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>118334</v>
+        <v>117613</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5036284078936722</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4260751254645896</v>
+        <v>0.4306603208448804</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5790488214079687</v>
+        <v>0.575523828411147</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>7729</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2976</v>
+        <v>3068</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15859</v>
+        <v>15884</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05815633301576589</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02238931124276746</v>
+        <v>0.02308249360587002</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1193288683522304</v>
+        <v>0.119513800565415</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -1552,19 +1552,19 @@
         <v>3726</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>10681</v>
+        <v>10016</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05214132787415791</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01315466226692237</v>
+        <v>0.01320385912810429</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1494791172800142</v>
+        <v>0.140171323045853</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>10</v>
@@ -1573,19 +1573,19 @@
         <v>11455</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>5825</v>
+        <v>5565</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>21350</v>
+        <v>19801</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05605308612091287</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02850283253240849</v>
+        <v>0.02723325942806051</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1044713382781919</v>
+        <v>0.09689118324350622</v>
       </c>
     </row>
     <row r="16">
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5803</v>
+        <v>5672</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02591077649731722</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08120966900298592</v>
+        <v>0.07937349426396484</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1639,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6567</v>
+        <v>6383</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009060135266425479</v>
@@ -1648,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03213552570665039</v>
+        <v>0.03123368299101009</v>
       </c>
     </row>
     <row r="17">
@@ -1665,19 +1665,19 @@
         <v>64700</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>52675</v>
+        <v>52583</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>76219</v>
+        <v>77612</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4868309703525079</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3963489081521649</v>
+        <v>0.3956577500636096</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5735016244056446</v>
+        <v>0.5839848092441272</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -1686,19 +1686,19 @@
         <v>23431</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>15893</v>
+        <v>16483</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32029</v>
+        <v>32303</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3279007594742007</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2224136752406634</v>
+        <v>0.2306749127082592</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4482345064868014</v>
+        <v>0.4520595071533989</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>85</v>
@@ -1707,19 +1707,19 @@
         <v>88132</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>73274</v>
+        <v>73618</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>103226</v>
+        <v>103246</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4312583707189894</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3585531286484824</v>
+        <v>0.3602383799694582</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5051198351936208</v>
+        <v>0.5052202157594804</v>
       </c>
     </row>
     <row r="18">
@@ -1811,19 +1811,19 @@
         <v>60524</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49128</v>
+        <v>49406</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71142</v>
+        <v>72539</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5536341095822048</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4493929196617131</v>
+        <v>0.451937952966918</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6507653329239965</v>
+        <v>0.6635419292767932</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -1832,19 +1832,19 @@
         <v>14088</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8463</v>
+        <v>8480</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19137</v>
+        <v>19327</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5061300083050336</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3040401853235067</v>
+        <v>0.3046639489219558</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6875255895420148</v>
+        <v>0.6943400435382142</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -1853,19 +1853,19 @@
         <v>74612</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>61381</v>
+        <v>60772</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>87492</v>
+        <v>87266</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.543993327941075</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4475238409849115</v>
+        <v>0.4430841699941523</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6378989988553995</v>
+        <v>0.6362521252007965</v>
       </c>
     </row>
     <row r="20">
@@ -1882,19 +1882,19 @@
         <v>4183</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9663</v>
+        <v>10053</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03826451167868346</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009742470086018367</v>
+        <v>0.009661057788513411</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08839288693920622</v>
+        <v>0.09196073458485743</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5024</v>
+        <v>4897</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0350911012110942</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1805015360557976</v>
+        <v>0.1759319876882766</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1924,19 +1924,19 @@
         <v>5160</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1912</v>
+        <v>1952</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11415</v>
+        <v>11130</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03762047976242434</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01394096428375123</v>
+        <v>0.01422847329279617</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08322925717847351</v>
+        <v>0.081145431765402</v>
       </c>
     </row>
     <row r="21">
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8189</v>
+        <v>7341</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02209539479082766</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07490863693322496</v>
+        <v>0.06715037743693321</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8578</v>
+        <v>8470</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.06883747435076384</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3081618061088895</v>
+        <v>0.3043071407452743</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -1995,19 +1995,19 @@
         <v>4332</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>13392</v>
+        <v>11252</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0315815269430892</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.00752544379126031</v>
+        <v>0.007513859405400652</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09763847055064198</v>
+        <v>0.08203732035181868</v>
       </c>
     </row>
     <row r="22">
@@ -2024,19 +2024,19 @@
         <v>42199</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31163</v>
+        <v>31172</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53210</v>
+        <v>53089</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3860059839482841</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2850585439135803</v>
+        <v>0.2851452111391756</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4867319670910412</v>
+        <v>0.4856264906649462</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -2045,19 +2045,19 @@
         <v>10854</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5664</v>
+        <v>5920</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16521</v>
+        <v>16659</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3899414161331083</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2035017919876238</v>
+        <v>0.2126969379770131</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5935161045916946</v>
+        <v>0.5984858544961386</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>47</v>
@@ -2066,19 +2066,19 @@
         <v>53053</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>40975</v>
+        <v>41474</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>66265</v>
+        <v>66873</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3868046653534115</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2987438840558175</v>
+        <v>0.3023892062542811</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4831356511964024</v>
+        <v>0.4875709462241206</v>
       </c>
     </row>
     <row r="23">
@@ -2170,19 +2170,19 @@
         <v>12752</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7783</v>
+        <v>7387</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>19234</v>
+        <v>19585</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3342218571873708</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2039931814409143</v>
+        <v>0.1936229677660486</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5041299641825111</v>
+        <v>0.5133190818003218</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2191,19 +2191,19 @@
         <v>4453</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1239</v>
+        <v>1102</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>7516</v>
+        <v>7532</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5092790235816601</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1416865008429505</v>
+        <v>0.1259935278579055</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8596037637387066</v>
+        <v>0.861493424450481</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>16</v>
@@ -2212,19 +2212,19 @@
         <v>17204</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10261</v>
+        <v>10940</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24249</v>
+        <v>25266</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.366857963556412</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2188125044413725</v>
+        <v>0.233281245333493</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5170892073524663</v>
+        <v>0.5387584246453194</v>
       </c>
     </row>
     <row r="25">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5215</v>
+        <v>4802</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02729143911478748</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1366754745161044</v>
+        <v>0.1258574005983246</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5291</v>
+        <v>5193</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02220346512171894</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1128281993057496</v>
+        <v>0.1107299251484757</v>
       </c>
     </row>
     <row r="26">
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>6296</v>
+        <v>5907</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05240602694193773</v>
@@ -2316,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1650257195675004</v>
+        <v>0.1548226784447992</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6673</v>
+        <v>6275</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04263591181392482</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1422835336093215</v>
+        <v>0.1338057139275591</v>
       </c>
     </row>
     <row r="27">
@@ -2367,19 +2367,19 @@
         <v>22361</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>15355</v>
+        <v>15719</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>27841</v>
+        <v>28344</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.586080676755904</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4024515730106361</v>
+        <v>0.4120085090694444</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7297294870138307</v>
+        <v>0.7429022773765204</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4</v>
@@ -2388,19 +2388,19 @@
         <v>4290</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1227</v>
+        <v>1211</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7504</v>
+        <v>7641</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4907209764183399</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1403962362612932</v>
+        <v>0.1385065755495187</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8583134991570494</v>
+        <v>0.8740064721420945</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>23</v>
@@ -2409,19 +2409,19 @@
         <v>26651</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>19186</v>
+        <v>18730</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>33286</v>
+        <v>32889</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.5683026595079442</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4091092265138161</v>
+        <v>0.399402382510111</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7097891225267452</v>
+        <v>0.7013261112263216</v>
       </c>
     </row>
     <row r="28">
@@ -2513,19 +2513,19 @@
         <v>4166</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1041</v>
+        <v>990</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9081</v>
+        <v>8743</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2249295487882333</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05621206530568677</v>
+        <v>0.05345746336685969</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4902304179395459</v>
+        <v>0.4719864304020824</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2547,19 +2547,19 @@
         <v>5228</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1926</v>
+        <v>1803</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>10962</v>
+        <v>10101</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2669581370498898</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09832883604835799</v>
+        <v>0.0920785491226434</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.5597341926980335</v>
+        <v>0.5157735513862337</v>
       </c>
     </row>
     <row r="30">
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>8292</v>
+        <v>8343</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1249844811157821</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4476776924180051</v>
+        <v>0.4504355028149038</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>8571</v>
+        <v>8269</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1182071342466047</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4376188316446047</v>
+        <v>0.4222314801865838</v>
       </c>
     </row>
     <row r="32">
@@ -2686,19 +2686,19 @@
         <v>12042</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>6260</v>
+        <v>6823</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16171</v>
+        <v>16396</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6500859700959846</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3379687500422713</v>
+        <v>0.3683460422066278</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.873002503477022</v>
+        <v>0.8851896249531696</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         <v>12042</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6607</v>
+        <v>6588</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16758</v>
+        <v>16209</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6148347287035055</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3373254999846826</v>
+        <v>0.3363792142150554</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8556735646941923</v>
+        <v>0.8276454200275734</v>
       </c>
     </row>
     <row r="33">
@@ -2824,19 +2824,19 @@
         <v>3219</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1048</v>
+        <v>1062</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5360</v>
+        <v>6356</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.5064722264354268</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1649160824434496</v>
+        <v>0.1670628682777305</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8432965784545752</v>
+        <v>1</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2858,19 +2858,19 @@
         <v>5511</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2236</v>
+        <v>2226</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>7661</v>
+        <v>7659</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6372538458089232</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2585340113049809</v>
+        <v>0.2574044438794102</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.8859133853506088</v>
+        <v>0.8855847427621504</v>
       </c>
     </row>
     <row r="35">
@@ -2981,19 +2981,19 @@
         <v>3137</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>996</v>
+        <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5308</v>
+        <v>5294</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4935277735645732</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1567034215454249</v>
+        <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8350839175565504</v>
+        <v>0.8329371317222695</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>0</v>
@@ -3015,19 +3015,19 @@
         <v>3137</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6412</v>
+        <v>6422</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3627461541910768</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1140866146493912</v>
+        <v>0.1144152572378496</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7414659886950191</v>
+        <v>0.7425955561205898</v>
       </c>
     </row>
     <row r="38">
@@ -3119,19 +3119,19 @@
         <v>334849</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>309779</v>
+        <v>309667</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>360296</v>
+        <v>358914</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.5389987402689004</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.49864486570002</v>
+        <v>0.4984650366598358</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5799606337248397</v>
+        <v>0.5777364856372512</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>139</v>
@@ -3140,19 +3140,19 @@
         <v>147502</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>131007</v>
+        <v>132774</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>162909</v>
+        <v>162079</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.6160081572795739</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.5471215537921429</v>
+        <v>0.5544983702280735</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.6803535270254156</v>
+        <v>0.6768872273315808</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>454</v>
@@ -3161,19 +3161,19 @@
         <v>482351</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>451259</v>
+        <v>452711</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>512802</v>
+        <v>511373</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.5604231473010965</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.5242979615841799</v>
+        <v>0.525985403143086</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.5958030041442881</v>
+        <v>0.5941427081685402</v>
       </c>
     </row>
     <row r="40">
@@ -3190,19 +3190,19 @@
         <v>26254</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>17963</v>
+        <v>17772</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>37814</v>
+        <v>37682</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.04226061934525725</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02891521528658426</v>
+        <v>0.0286068113025901</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06086841671900531</v>
+        <v>0.06065650200050201</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>10</v>
@@ -3211,19 +3211,19 @@
         <v>11037</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>5799</v>
+        <v>5202</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>20144</v>
+        <v>19469</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.04609384115404721</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02421777416034232</v>
+        <v>0.02172376387047794</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08412658253820431</v>
+        <v>0.08130927052199108</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>35</v>
@@ -3232,19 +3232,19 @@
         <v>37291</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>26308</v>
+        <v>26746</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>51456</v>
+        <v>51665</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.04332704092672209</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03056559075419722</v>
+        <v>0.03107466336338391</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.05978490256039626</v>
+        <v>0.06002751126977163</v>
       </c>
     </row>
     <row r="41">
@@ -3261,19 +3261,19 @@
         <v>20160</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11535</v>
+        <v>11442</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>32582</v>
+        <v>31883</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0324503496868912</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01856707597709742</v>
+        <v>0.01841757559238243</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05244693750182187</v>
+        <v>0.05132074837356523</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>7</v>
@@ -3282,19 +3282,19 @@
         <v>8103</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>3158</v>
+        <v>3310</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>16090</v>
+        <v>17908</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03383913727159632</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01318947329874973</v>
+        <v>0.01382541670051328</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.06719684385945043</v>
+        <v>0.07478668681639276</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>24</v>
@@ -3303,19 +3303,19 @@
         <v>28262</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>18867</v>
+        <v>18884</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>42749</v>
+        <v>41115</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03283671737607731</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02192081015335356</v>
+        <v>0.02194035695895628</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04966818653378158</v>
+        <v>0.04777004430397418</v>
       </c>
     </row>
     <row r="42">
@@ -3332,19 +3332,19 @@
         <v>239980</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>216315</v>
+        <v>215926</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>266641</v>
+        <v>264201</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3862902906989512</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3481972513352671</v>
+        <v>0.3475719181476313</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4292062309127597</v>
+        <v>0.425279440844137</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>69</v>
@@ -3353,19 +3353,19 @@
         <v>72806</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>58345</v>
+        <v>59585</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>87628</v>
+        <v>86835</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3040588642947826</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2436631559866707</v>
+        <v>0.2488413576107985</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.365957505401326</v>
+        <v>0.3626446060123799</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>294</v>
@@ -3374,19 +3374,19 @@
         <v>312786</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>284504</v>
+        <v>285230</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>342291</v>
+        <v>345792</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.363413094396104</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3305526520037028</v>
+        <v>0.3313960724124402</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3976933223843831</v>
+        <v>0.4017604594278655</v>
       </c>
     </row>
     <row r="43">
@@ -3721,19 +3721,19 @@
         <v>100467</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>85950</v>
+        <v>87209</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112404</v>
+        <v>113025</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5977365747325322</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.51136557229082</v>
+        <v>0.5188591349623305</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6687560916083304</v>
+        <v>0.6724493693785009</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -3742,19 +3742,19 @@
         <v>35015</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26519</v>
+        <v>27190</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44029</v>
+        <v>43356</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5338617577638413</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4043220737664515</v>
+        <v>0.4145599156027494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6712987573036705</v>
+        <v>0.6610339651721695</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>128</v>
@@ -3763,19 +3763,19 @@
         <v>135482</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>119145</v>
+        <v>118669</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>149455</v>
+        <v>147825</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5798076440694906</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5098919818141067</v>
+        <v>0.5078537698696907</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6396063309508946</v>
+        <v>0.6326325177258433</v>
       </c>
     </row>
     <row r="5">
@@ -3792,19 +3792,19 @@
         <v>13514</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7402</v>
+        <v>7278</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21675</v>
+        <v>22848</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08040475480308565</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04404005945857362</v>
+        <v>0.04330364199687668</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1289557951229649</v>
+        <v>0.1359360509678309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -3813,19 +3813,19 @@
         <v>4002</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1035</v>
+        <v>1003</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9954</v>
+        <v>9076</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06101570521582195</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01578756809550344</v>
+        <v>0.01529509206295481</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1517726950105418</v>
+        <v>0.1383803179264434</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -3834,19 +3834,19 @@
         <v>17516</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10335</v>
+        <v>10339</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27975</v>
+        <v>26422</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07496247031336696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04422927187122265</v>
+        <v>0.04424629719328624</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1197205305443048</v>
+        <v>0.1130750710839097</v>
       </c>
     </row>
     <row r="6">
@@ -3863,19 +3863,19 @@
         <v>3021</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7959</v>
+        <v>8200</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0179708037512567</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005731961770091684</v>
+        <v>0.005740021406653111</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04735163233132103</v>
+        <v>0.04878372148896142</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9646</v>
+        <v>9795</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03965830756758203</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1470704284800854</v>
+        <v>0.1493426630053706</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -3905,19 +3905,19 @@
         <v>5622</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1948</v>
+        <v>1966</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13719</v>
+        <v>13338</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02405823805839435</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008335148230376703</v>
+        <v>0.008412824435661923</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05871266715536758</v>
+        <v>0.05708325603699431</v>
       </c>
     </row>
     <row r="7">
@@ -3934,19 +3934,19 @@
         <v>51077</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39339</v>
+        <v>39353</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64417</v>
+        <v>63992</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3038878667131255</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2340525591594207</v>
+        <v>0.2341347927019853</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3832541616579537</v>
+        <v>0.3807275311005371</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -3955,19 +3955,19 @@
         <v>23970</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15236</v>
+        <v>16561</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31657</v>
+        <v>32738</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3654642294527548</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.232300429464168</v>
+        <v>0.2525053373096854</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4826678579082976</v>
+        <v>0.4991476211522909</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>70</v>
@@ -3976,19 +3976,19 @@
         <v>75047</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61786</v>
+        <v>62205</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>89933</v>
+        <v>89754</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3211716475587481</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2644173804700271</v>
+        <v>0.2662120780835783</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3848746907608436</v>
+        <v>0.3841104390780639</v>
       </c>
     </row>
     <row r="8">
@@ -4080,19 +4080,19 @@
         <v>92078</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>78091</v>
+        <v>76766</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>105465</v>
+        <v>105818</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4731841278734879</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4013079391725637</v>
+        <v>0.3944978775114271</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5419793723861722</v>
+        <v>0.5437957792678582</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>45</v>
@@ -4101,19 +4101,19 @@
         <v>45375</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>35386</v>
+        <v>35749</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>54024</v>
+        <v>54562</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5122571685009634</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3994879336053377</v>
+        <v>0.4035840084815393</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6098919379419062</v>
+        <v>0.6159651537647632</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>132</v>
@@ -4122,19 +4122,19 @@
         <v>137453</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>121413</v>
+        <v>120180</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>156269</v>
+        <v>154531</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.48540656857929</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4287623150121946</v>
+        <v>0.4244067492369155</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5518551979311046</v>
+        <v>0.5457145042700726</v>
       </c>
     </row>
     <row r="10">
@@ -4151,19 +4151,19 @@
         <v>12561</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6989</v>
+        <v>7020</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21632</v>
+        <v>20994</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06455208674950431</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03591393852834106</v>
+        <v>0.03607304963073307</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1111677636517457</v>
+        <v>0.1078896959679398</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -4172,19 +4172,19 @@
         <v>4051</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1052</v>
+        <v>978</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9489</v>
+        <v>9907</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04572850123773059</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01187459678588439</v>
+        <v>0.01104270171649005</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1071294956962832</v>
+        <v>0.1118463987679501</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>16</v>
@@ -4193,19 +4193,19 @@
         <v>16612</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10290</v>
+        <v>9825</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24965</v>
+        <v>27303</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05866387958431969</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03633782929202235</v>
+        <v>0.03469583912495929</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08816242176385501</v>
+        <v>0.09641778757192884</v>
       </c>
     </row>
     <row r="11">
@@ -4222,19 +4222,19 @@
         <v>7414</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3017</v>
+        <v>3084</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14942</v>
+        <v>14726</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03810199382721754</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01550497335029799</v>
+        <v>0.01584758258214627</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07678637461783527</v>
+        <v>0.07567735198528081</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6476</v>
+        <v>6333</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02094497212945057</v>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07310962626342017</v>
+        <v>0.07149176435699578</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>9</v>
@@ -4264,19 +4264,19 @@
         <v>9270</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4374</v>
+        <v>4805</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16472</v>
+        <v>17519</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03273510461098234</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01544488368779543</v>
+        <v>0.01696915540194217</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05816968132794414</v>
+        <v>0.06186656289114908</v>
       </c>
     </row>
     <row r="12">
@@ -4293,19 +4293,19 @@
         <v>82538</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68451</v>
+        <v>67980</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>95518</v>
+        <v>96621</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4241617915497902</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3517687373577364</v>
+        <v>0.3493487889943375</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4908648360319405</v>
+        <v>0.4965324309562708</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>38</v>
@@ -4314,19 +4314,19 @@
         <v>37298</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>28591</v>
+        <v>28610</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46531</v>
+        <v>47424</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4210693581318555</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3227749328843783</v>
+        <v>0.3229916064570776</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5253021268649527</v>
+        <v>0.5353861430475974</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>116</v>
@@ -4335,19 +4335,19 @@
         <v>119836</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>102381</v>
+        <v>103197</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>135852</v>
+        <v>137361</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4231944472254079</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3615532614805756</v>
+        <v>0.3644334684974753</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4797519414099349</v>
+        <v>0.4850825087009638</v>
       </c>
     </row>
     <row r="13">
@@ -4439,19 +4439,19 @@
         <v>46451</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35458</v>
+        <v>34883</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>60152</v>
+        <v>60081</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.23999414215069</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1831957111232259</v>
+        <v>0.1802234712762171</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3107794098318813</v>
+        <v>0.3104152624375204</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>34</v>
@@ -4460,19 +4460,19 @@
         <v>33928</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25037</v>
+        <v>25521</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43606</v>
+        <v>43128</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3863732531949422</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2851213474266455</v>
+        <v>0.2906386627592198</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4965843152126777</v>
+        <v>0.4911438396507476</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>78</v>
@@ -4481,19 +4481,19 @@
         <v>80379</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>66149</v>
+        <v>66837</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>97527</v>
+        <v>98476</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2856778735262134</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2351005596065004</v>
+        <v>0.2375464670998085</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3466239052549339</v>
+        <v>0.3499940929363503</v>
       </c>
     </row>
     <row r="15">
@@ -4510,19 +4510,19 @@
         <v>8498</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3825</v>
+        <v>3733</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15972</v>
+        <v>16109</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04390625914219749</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01976007681027232</v>
+        <v>0.01928624273648005</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08251882923963806</v>
+        <v>0.08322965626268664</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -4531,19 +4531,19 @@
         <v>3340</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>913</v>
+        <v>896</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9246</v>
+        <v>9249</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03803487208197113</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01039291976705815</v>
+        <v>0.01020438662725813</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1052897700138385</v>
+        <v>0.1053244411100527</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>11</v>
@@ -4552,19 +4552,19 @@
         <v>11838</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6455</v>
+        <v>6175</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>20881</v>
+        <v>20584</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04207384693974862</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02294034412790357</v>
+        <v>0.02194815830690095</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07421443651486795</v>
+        <v>0.07315639430167592</v>
       </c>
     </row>
     <row r="16">
@@ -4581,19 +4581,19 @@
         <v>6903</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3110</v>
+        <v>2277</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14529</v>
+        <v>13833</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03566618319695751</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01607048648835985</v>
+        <v>0.01176525242339752</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07506572986823749</v>
+        <v>0.07146695466089696</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -4602,19 +4602,19 @@
         <v>4410</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10722</v>
+        <v>10155</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05021688449031401</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01146273747686466</v>
+        <v>0.01151196505805348</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1221050720744741</v>
+        <v>0.1156477991221548</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -4623,19 +4623,19 @@
         <v>11313</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5785</v>
+        <v>5558</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19354</v>
+        <v>19585</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04020733886096631</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02056096938661374</v>
+        <v>0.01975514169008086</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06878539792544049</v>
+        <v>0.06960810602241964</v>
       </c>
     </row>
     <row r="17">
@@ -4655,16 +4655,16 @@
         <v>117042</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>144214</v>
+        <v>143150</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.680433415510155</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6047064872292609</v>
+        <v>0.6047052012533431</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7450932270267525</v>
+        <v>0.7395922311482175</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -4673,19 +4673,19 @@
         <v>46134</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37178</v>
+        <v>37575</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56163</v>
+        <v>55734</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5253749902327727</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4233826873101886</v>
+        <v>0.4279057355390916</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6395874706569847</v>
+        <v>0.6347007515847225</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>167</v>
@@ -4694,19 +4694,19 @@
         <v>177834</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>161284</v>
+        <v>160918</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>194140</v>
+        <v>193080</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6320409406730716</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5732228834492756</v>
+        <v>0.5719225327129118</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6899947903204815</v>
+        <v>0.686227200054246</v>
       </c>
     </row>
     <row r="18">
@@ -4798,19 +4798,19 @@
         <v>31302</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21788</v>
+        <v>21876</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42486</v>
+        <v>42185</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2573293553971384</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1791176457228109</v>
+        <v>0.1798414150466682</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3492729642174405</v>
+        <v>0.3467986054566358</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -4819,19 +4819,19 @@
         <v>33622</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25608</v>
+        <v>25025</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>42543</v>
+        <v>41648</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5151624769935844</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.392364994637579</v>
+        <v>0.3834394160111342</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6518500321486942</v>
+        <v>0.6381414682305873</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -4840,19 +4840,19 @@
         <v>64925</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52229</v>
+        <v>52185</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79225</v>
+        <v>79167</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3473608657926056</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2794367086902824</v>
+        <v>0.2792027584892444</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4238702238201184</v>
+        <v>0.4235596875410306</v>
       </c>
     </row>
     <row r="20">
@@ -4869,19 +4869,19 @@
         <v>7044</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2772</v>
+        <v>2663</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14840</v>
+        <v>14186</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05791003581318598</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02278805117239007</v>
+        <v>0.02189105634668157</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1219941599055536</v>
+        <v>0.1166225515216546</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -4890,19 +4890,19 @@
         <v>6725</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2142</v>
+        <v>2155</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>15277</v>
+        <v>15110</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1030471023898692</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03282539873548133</v>
+        <v>0.03302670319674943</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2340839047690221</v>
+        <v>0.2315198778196675</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -4911,19 +4911,19 @@
         <v>13770</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7234</v>
+        <v>7248</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23265</v>
+        <v>24001</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07367123147942796</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03870570757844127</v>
+        <v>0.0387767619892078</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1244705021584735</v>
+        <v>0.1284131990018512</v>
       </c>
     </row>
     <row r="21">
@@ -4940,19 +4940,19 @@
         <v>7722</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2965</v>
+        <v>3066</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15775</v>
+        <v>16382</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06348208167363943</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02437244064935575</v>
+        <v>0.02520537274614585</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1296868494749417</v>
+        <v>0.1346743669256678</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6683</v>
+        <v>6598</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03316288623510272</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1023995979268283</v>
+        <v>0.1011029035377217</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -4982,19 +4982,19 @@
         <v>9887</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4240</v>
+        <v>4772</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>18501</v>
+        <v>20232</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05289506731952844</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0226869323976848</v>
+        <v>0.02553011286447728</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09898229355397942</v>
+        <v>0.1082437107647484</v>
       </c>
     </row>
     <row r="22">
@@ -5011,19 +5011,19 @@
         <v>75574</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>64234</v>
+        <v>62487</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>86679</v>
+        <v>85613</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6212785271160363</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5280586389373769</v>
+        <v>0.5136973098879245</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7125723892378186</v>
+        <v>0.7038130701440563</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -5032,19 +5032,19 @@
         <v>22753</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15099</v>
+        <v>15270</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>30353</v>
+        <v>30682</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3486275343814437</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2313564891698981</v>
+        <v>0.2339617509659348</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4650792903405483</v>
+        <v>0.4701160890955328</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>90</v>
@@ -5053,19 +5053,19 @@
         <v>98327</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84517</v>
+        <v>84096</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>111509</v>
+        <v>111897</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.526072835408438</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4521866031592596</v>
+        <v>0.44993346868843</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5966006757757913</v>
+        <v>0.59867490549</v>
       </c>
     </row>
     <row r="23">
@@ -5157,19 +5157,19 @@
         <v>15428</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9579</v>
+        <v>9061</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>22738</v>
+        <v>22580</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3556314872677143</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2207948751459976</v>
+        <v>0.2088622967328495</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5241396831803309</v>
+        <v>0.5204882194312905</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -5178,19 +5178,19 @@
         <v>8732</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4371</v>
+        <v>4069</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>12983</v>
+        <v>12688</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5783657914695139</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2895238553816245</v>
+        <v>0.2695500036891375</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8600049036290189</v>
+        <v>0.8404250304104242</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>21</v>
@@ -5199,19 +5199,19 @@
         <v>24160</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>16799</v>
+        <v>16242</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>33034</v>
+        <v>32575</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4131342211295189</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2872684522626398</v>
+        <v>0.2777352621503116</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5648933477470431</v>
+        <v>0.5570311599869605</v>
       </c>
     </row>
     <row r="25">
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5229</v>
+        <v>5279</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02364075171635292</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1205323421749799</v>
+        <v>0.1216818618530939</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6282</v>
+        <v>6455</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1519908302891892</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4161042407563184</v>
+        <v>0.4275684160536551</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -5270,19 +5270,19 @@
         <v>3320</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1006</v>
+        <v>1023</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>8841</v>
+        <v>9236</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05677655644012245</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01720967057717933</v>
+        <v>0.01748675765348894</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1511779495155035</v>
+        <v>0.1579356744686781</v>
       </c>
     </row>
     <row r="26">
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8271</v>
+        <v>7344</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06031092132544573</v>
@@ -5311,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1906611541924871</v>
+        <v>0.1692880086621479</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -5336,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9121</v>
+        <v>9361</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04474060821015992</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1559663946274896</v>
+        <v>0.1600679876606571</v>
       </c>
     </row>
     <row r="27">
@@ -5362,19 +5362,19 @@
         <v>24312</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17077</v>
+        <v>16941</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30454</v>
+        <v>31215</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5604168396904871</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3936529042621364</v>
+        <v>0.3905163024831507</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7019909443051596</v>
+        <v>0.7195381687155203</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -5383,19 +5383,19 @@
         <v>4071</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1076</v>
+        <v>1111</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>9569</v>
+        <v>9221</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2696433782412969</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07126849573992791</v>
+        <v>0.07356284626937795</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6338276028199925</v>
+        <v>0.6107540603332154</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>24</v>
@@ -5404,19 +5404,19 @@
         <v>28383</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>19793</v>
+        <v>20567</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>36590</v>
+        <v>36127</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4853486142201987</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3384626530159451</v>
+        <v>0.3516940283521693</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6256962725447349</v>
+        <v>0.6177711453439148</v>
       </c>
     </row>
     <row r="28">
@@ -5511,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4362</v>
+        <v>4687</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06904228462727582</v>
@@ -5520,7 +5520,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3258687570715115</v>
+        <v>0.3500850544270629</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -5550,19 +5550,19 @@
         <v>2855</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7030</v>
+        <v>7061</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1655752520088463</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05093605396978634</v>
+        <v>0.0498630247358827</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4077180060484268</v>
+        <v>0.4095009431954576</v>
       </c>
     </row>
     <row r="30">
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>3979</v>
+        <v>4076</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.07174947198591769</v>
@@ -5591,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2972609072047043</v>
+        <v>0.304465502622633</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>6118</v>
+        <v>5564</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1134776334964305</v>
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3548038106285332</v>
+        <v>0.3226982519101805</v>
       </c>
     </row>
     <row r="31">
@@ -5697,7 +5697,7 @@
         <v>11502</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>8355</v>
+        <v>8230</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>13387</v>
@@ -5706,7 +5706,7 @@
         <v>0.8592082433868065</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6240943448614581</v>
+        <v>0.6147871772073403</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -5739,19 +5739,19 @@
         <v>12431</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>8151</v>
+        <v>8179</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15388</v>
+        <v>15408</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7209471144947233</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4726967882976225</v>
+        <v>0.4743623133964754</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.892434169824266</v>
+        <v>0.8935703096146853</v>
       </c>
     </row>
     <row r="33">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3290</v>
+        <v>3286</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1397973181143246</v>
@@ -5855,7 +5855,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5701650596497627</v>
+        <v>0.5695353791648591</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3290</v>
+        <v>3286</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1397973181143246</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5701650596497627</v>
+        <v>0.5695353791648591</v>
       </c>
     </row>
     <row r="35">
@@ -5948,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3252</v>
+        <v>2450</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1357668814509276</v>
@@ -5957,7 +5957,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5636659446154938</v>
+        <v>0.4246718390196372</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3252</v>
+        <v>2450</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1357668814509276</v>
@@ -5987,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5636659446154938</v>
+        <v>0.4246718390196372</v>
       </c>
     </row>
     <row r="37">
@@ -6004,7 +6004,7 @@
         <v>4180</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>5770</v>
@@ -6013,7 +6013,7 @@
         <v>0.7244358004347479</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2936979519663504</v>
+        <v>0.2936154609356543</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -6034,7 +6034,7 @@
         <v>4180</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="T37" s="5" t="n">
         <v>5770</v>
@@ -6043,7 +6043,7 @@
         <v>0.7244358004347479</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2936979519663504</v>
+        <v>0.2936154609356543</v>
       </c>
       <c r="W37" s="6" t="n">
         <v>1</v>
@@ -6126,19 +6126,19 @@
         <v>287458</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>260096</v>
+        <v>260468</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>316064</v>
+        <v>312718</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3882437483254648</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3512883532184011</v>
+        <v>0.3517907694801852</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4268794025707255</v>
+        <v>0.4223606411928029</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>153</v>
@@ -6147,19 +6147,19 @@
         <v>158603</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>141349</v>
+        <v>140190</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>176197</v>
+        <v>178559</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.4862180647088286</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.4333236699944122</v>
+        <v>0.4297723898807476</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.5401554710482545</v>
+        <v>0.5473948882497329</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>422</v>
@@ -6168,19 +6168,19 @@
         <v>446060</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>414190</v>
+        <v>411936</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>480757</v>
+        <v>477933</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.4182070405221606</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3883271512363702</v>
+        <v>0.3862139907270622</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.4507374717217648</v>
+        <v>0.4480897035364947</v>
       </c>
     </row>
     <row r="40">
@@ -6197,19 +6197,19 @@
         <v>43604</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>31536</v>
+        <v>31194</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>58003</v>
+        <v>59650</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05889248507713864</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04259262056404222</v>
+        <v>0.04213033926759582</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0783397152452238</v>
+        <v>0.08056338056904203</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>19</v>
@@ -6218,19 +6218,19 @@
         <v>21409</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>12987</v>
+        <v>12846</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>33318</v>
+        <v>32814</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06563095743054782</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.03981391350094324</v>
+        <v>0.0393821161069316</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1021413714776865</v>
+        <v>0.1005958821113596</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>60</v>
@@ -6239,19 +6239,19 @@
         <v>65013</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>49965</v>
+        <v>50308</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>83049</v>
+        <v>83047</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.060953298804019</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.046845289760631</v>
+        <v>0.04716670180217573</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07786330256943798</v>
+        <v>0.07786156979127416</v>
       </c>
     </row>
     <row r="41">
@@ -6268,19 +6268,19 @@
         <v>28460</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>18627</v>
+        <v>18216</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>43366</v>
+        <v>41518</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03843842139620918</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02515756496911708</v>
+        <v>0.02460310861328007</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05857090625103047</v>
+        <v>0.05607461041802443</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>10</v>
@@ -6289,19 +6289,19 @@
         <v>11030</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5739</v>
+        <v>5183</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>20578</v>
+        <v>19368</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03381513124067489</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0175932356110878</v>
+        <v>0.01588924227452046</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.06308456025655125</v>
+        <v>0.05937449223397116</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>35</v>
@@ -6310,19 +6310,19 @@
         <v>39490</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>28646</v>
+        <v>27215</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>55325</v>
+        <v>53849</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0370244896745697</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02685689094596799</v>
+        <v>0.02551520388406582</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.05187073183331233</v>
+        <v>0.05048660504968965</v>
       </c>
     </row>
     <row r="42">
@@ -6339,19 +6339,19 @@
         <v>380883</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>351173</v>
+        <v>353074</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>409264</v>
+        <v>407769</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5144253452011873</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.4742989380993671</v>
+        <v>0.4768666649702723</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.5527567651110818</v>
+        <v>0.5507380064922575</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>134</v>
@@ -6360,19 +6360,19 @@
         <v>135155</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>117838</v>
+        <v>116438</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>153188</v>
+        <v>153358</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4143358466199487</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3612478372403058</v>
+        <v>0.3569552485238821</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4696169256365613</v>
+        <v>0.470137697372178</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>484</v>
@@ -6381,19 +6381,19 @@
         <v>516038</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>483565</v>
+        <v>483479</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>549077</v>
+        <v>550888</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4838151709992507</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4533702298158242</v>
+        <v>0.4532898991641534</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.5147916975805983</v>
+        <v>0.5164893485669673</v>
       </c>
     </row>
     <row r="43">
